--- a/biology/Botanique/Bianco_di_Scandiano/Bianco_di_Scandiano.xlsx
+++ b/biology/Botanique/Bianco_di_Scandiano/Bianco_di_Scandiano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Bianco di Scandiano est un vin blanc italien de la région Émilie-Romagne doté d'une appellation DOC depuis le 11 mai 1987.
@@ -515,7 +527,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Reggio d'Émilie dans les communes de Albinea, Quattro Castella, Bibbiano, Montecchio, San Polo d'Enza, Canossa, Vezzano sul Crostolo, Viano, Scandiano, Castellarano et Casalgrande ainsi qu'en partie sur le territoire des communes Reggio d'Émilie, Casina, Sant'Ilario d'Enza et Cavriago.
 </t>
@@ -546,7 +560,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : blanc paille plus ou moins clair
 odeur : caractéristique, agrábble, fruité
@@ -580,7 +596,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
  pas de données disponibles </t>
